--- a/biology/Médecine/Ropivacaïne/Ropivacaïne.xlsx
+++ b/biology/Médecine/Ropivacaïne/Ropivacaïne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ropivaca%C3%AFne</t>
+          <t>Ropivacaïne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La ropivacaïne est un anesthésique local de la famille des amino-amides commercialisé sous le nom de Naropeine. Le terme ropivacaïne regroupe la forme lévogyre (commercialisée) et la forme racémique de la molécule.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ropivaca%C3%AFne</t>
+          <t>Ropivacaïne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Indications
-La ropivacaïne est réservée à l'usage hospitalier. Elle est indiquée dans les rachianesthésies, les anesthésies péridurales et certains blocs périphériques. Elle est très fréquemment utilisée en anesthésie et analgésie obstétricales, en association avec la morphine et ses dérivés. Il est également possible de l'utiliser en infiltrations, par exemple dans les sites opératoires pour diminuer les douleurs post-opératoires. La ropivacaïne s'utilise aussi en anesthésie caudale chez l'enfant entre 1 et 12 ans.
-Effets indésirables
-La ropivacaïne comme tous les anesthésiques locaux agit en bloquant la conduction nerveuse au niveau du canal sodique. En cas de passage intravasculaire accidentel, sa toxicité cardiaque est réelle mais toutefois moins importante que celle de la bupivacaïne[réf. nécessaire]. Elle est également neurotoxique par cette voie. Les réactions allergiques sont exceptionnelles.
+          <t>Indications</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ropivacaïne est réservée à l'usage hospitalier. Elle est indiquée dans les rachianesthésies, les anesthésies péridurales et certains blocs périphériques. Elle est très fréquemment utilisée en anesthésie et analgésie obstétricales, en association avec la morphine et ses dérivés. Il est également possible de l'utiliser en infiltrations, par exemple dans les sites opératoires pour diminuer les douleurs post-opératoires. La ropivacaïne s'utilise aussi en anesthésie caudale chez l'enfant entre 1 et 12 ans.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ropivaca%C3%AFne</t>
+          <t>Ropivacaïne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Utilisation clinique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ropivacaïne comme tous les anesthésiques locaux agit en bloquant la conduction nerveuse au niveau du canal sodique. En cas de passage intravasculaire accidentel, sa toxicité cardiaque est réelle mais toutefois moins importante que celle de la bupivacaïne[réf. nécessaire]. Elle est également neurotoxique par cette voie. Les réactions allergiques sont exceptionnelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ropivacaïne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ropivaca%C3%AFne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Avancées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré une puissance moindre, la ropivacaïne tend à remplacer la bupivacaïne dans la plupart de ses indications (à l'exception des rachianesthésies) en raison de sa moindre toxicité cardiaque[réf. nécessaire]. Elle est concurrencée dans ce domaine par la lévobupivacaïne.
 </t>
